--- a/biology/Zoologie/Cryptoceloidea/Cryptoceloidea.xlsx
+++ b/biology/Zoologie/Cryptoceloidea/Cryptoceloidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cryptoceloidea sont une super-famille de vers plats marins du sous-ordre des Acotylea (ordre des Polycladida).
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,17 +553,57 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Super-famille des Cryptoceloidea
-Le nom valide complet (avec auteur) de ce taxon est Cryptoceloidea Bahia (d), Padula (d) &amp; Schrödl (d), 2017[1],[2].
-Toutefois la base de données World Register of Marine Species                               (18 novembre 2023)[1] considère cette super-famille comme un synonyme junior de la super-famille des Discoceloidea, tout en présentant ces deux super-familles de manière distincte, avec leur propre liste de familles[1]. La même distinction entre ces deux super-familles est faite dans les articles correspondants.
-La super-famille des Cryptoceloidea a pour synonyme[1] Ilyplanoidea Faubel, 1984, considérée comme invalide.
-Liste des familles
-Selon la base de données World Register of Marine Species                               (18 novembre 2023)[1], la super-famille des Cryptoceloidea regroupe les familles suivantes :
+          <t>Super-famille des Cryptoceloidea</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cryptoceloidea Bahia (d), Padula (d) &amp; Schrödl (d), 2017,.
+Toutefois la base de données World Register of Marine Species                               (18 novembre 2023) considère cette super-famille comme un synonyme junior de la super-famille des Discoceloidea, tout en présentant ces deux super-familles de manière distincte, avec leur propre liste de familles. La même distinction entre ces deux super-familles est faite dans les articles correspondants.
+La super-famille des Cryptoceloidea a pour synonyme Ilyplanoidea Faubel, 1984, considérée comme invalide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cryptoceloidea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptoceloidea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (18 novembre 2023), la super-famille des Cryptoceloidea regroupe les familles suivantes :
 Discocelididae Laidlaw, 1903
 Plehniidae Bock, 1913
 Polyposthiidae Bergendal, 1893
 Synonymes, reclassements
-Cryptocelididae Laidlaw, 1903 est acceptée comme Cryptocelidae Laidlaw, 1903. Cependant ces deux familles ne sont pas unifiées dans World Register of Marine Species                               (18 novembre 2023)[1] : elles ont leur propre liste de genres et appartiennent à des super-familles différentes. La même distinction entre ces deux familles est faite dans les articles correspondants.</t>
+Cryptocelididae Laidlaw, 1903 est acceptée comme Cryptocelidae Laidlaw, 1903. Cependant ces deux familles ne sont pas unifiées dans World Register of Marine Species                               (18 novembre 2023) : elles ont leur propre liste de genres et appartiennent à des super-familles différentes. La même distinction entre ces deux familles est faite dans les articles correspondants.</t>
         </is>
       </c>
     </row>
